--- a/CTeNaoProcessado.xlsx
+++ b/CTeNaoProcessado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\VincularCTeNotaFiscal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDD39F7-838E-446A-A965-305969736688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB459A5-DB32-4A4A-8E0C-C5DEABF6B455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Número Cte</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Tomador</t>
   </si>
   <si>
-    <t>0000000</t>
-  </si>
-  <si>
     <t>151124</t>
   </si>
   <si>
@@ -52,6 +49,42 @@
   </si>
   <si>
     <t>2679</t>
+  </si>
+  <si>
+    <t>987539</t>
+  </si>
+  <si>
+    <t>2782</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>9131583</t>
+  </si>
+  <si>
+    <t>9131585</t>
+  </si>
+  <si>
+    <t>9131586</t>
+  </si>
+  <si>
+    <t>9131587</t>
+  </si>
+  <si>
+    <t>9131588</t>
+  </si>
+  <si>
+    <t>9131589</t>
+  </si>
+  <si>
+    <t>12271</t>
+  </si>
+  <si>
+    <t>12272</t>
+  </si>
+  <si>
+    <t>Não apagar</t>
   </si>
 </sst>
 </file>
@@ -433,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,42 +487,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CTeNaoProcessado.xlsx
+++ b/CTeNaoProcessado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\VincularCTeNotaFiscal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB459A5-DB32-4A4A-8E0C-C5DEABF6B455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5330595D-C1D3-4605-945D-D230AB00751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Número Cte</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Não apagar</t>
+  </si>
+  <si>
+    <t>9137804</t>
+  </si>
+  <si>
+    <t>9137811</t>
+  </si>
+  <si>
+    <t>9137813</t>
+  </si>
+  <si>
+    <t>9137816</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -613,6 +625,38 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
